--- a/Output_code/Data/Table_2_absolute.xlsx
+++ b/Output_code/Data/Table_2_absolute.xlsx
@@ -74,28 +74,28 @@
     <t xml:space="preserve">DataLong_Subs_sim_group2</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
-  </si>
-  <si>
     <t xml:space="preserve">UniqueSubclass</t>
   </si>
   <si>
     <t xml:space="preserve">Herfindahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Shannon</t>
@@ -482,25 +482,25 @@
         <v>1.78820167640335</v>
       </c>
       <c r="B2" t="n">
-        <v>0.424136838451957</v>
+        <v>0.374372401071109</v>
       </c>
       <c r="C2" t="n">
-        <v>1.09049657714988</v>
+        <v>1.17235907664138</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48590677565682</v>
+        <v>2.40404427616533</v>
       </c>
       <c r="E2" t="n">
-        <v>0.956893473037517</v>
+        <v>1.05443177030398</v>
       </c>
       <c r="F2" t="n">
-        <v>2.61950987976919</v>
+        <v>2.52197158250273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.695625180551111</v>
+        <v>0.823818371244177</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88077817225559</v>
+        <v>2.75258498156253</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -523,25 +523,25 @@
         <v>0.631764610606147</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289377152177818</v>
+        <v>0.293998731802126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.155739195273636</v>
+        <v>0.14813669679165</v>
       </c>
       <c r="D3" t="n">
-        <v>1.10779002593866</v>
+        <v>1.11539252442064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0645853923376231</v>
+        <v>0.0555270962739806</v>
       </c>
       <c r="F3" t="n">
-        <v>1.19894382887467</v>
+        <v>1.20800212493831</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.113670933403913</v>
+        <v>-0.125576122516129</v>
       </c>
       <c r="H3" t="n">
-        <v>1.37720015461621</v>
+        <v>1.38910534372842</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -564,25 +564,25 @@
         <v>0.617193394249308</v>
       </c>
       <c r="B4" t="n">
-        <v>0.359588572352557</v>
+        <v>0.378544487624809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.025670192729352</v>
+        <v>-0.00551228789350167</v>
       </c>
       <c r="D4" t="n">
-        <v>1.20871659576926</v>
+        <v>1.23989907639212</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0876002075617035</v>
+        <v>-0.124753801495316</v>
       </c>
       <c r="F4" t="n">
-        <v>1.32198699606032</v>
+        <v>1.35914058999393</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.309106768130879</v>
+        <v>-0.357937205872198</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5434935566295</v>
+        <v>1.59232399437082</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -605,25 +605,25 @@
         <v>22.2329187061521</v>
       </c>
       <c r="B5" t="n">
-        <v>6.55011769114624</v>
+        <v>6.13736509398814</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4579751042166</v>
+        <v>12.1369531265416</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0078623080877</v>
+        <v>32.3288842857626</v>
       </c>
       <c r="E5" t="n">
-        <v>9.3946880315055</v>
+        <v>10.2036831219354</v>
       </c>
       <c r="F5" t="n">
-        <v>35.0711493807988</v>
+        <v>34.2621542903689</v>
       </c>
       <c r="G5" t="n">
-        <v>5.35981553375941</v>
+        <v>6.42306622403868</v>
       </c>
       <c r="H5" t="n">
-        <v>39.1060218785449</v>
+        <v>38.0427711882656</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -646,25 +646,25 @@
         <v>11.5939233619417</v>
       </c>
       <c r="B6" t="n">
-        <v>3.80217327859823</v>
+        <v>3.67194661823382</v>
       </c>
       <c r="C6" t="n">
-        <v>5.33934831864761</v>
+        <v>5.55357117494705</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8484984052358</v>
+        <v>17.6342755489363</v>
       </c>
       <c r="E6" t="n">
-        <v>4.14166373588917</v>
+        <v>4.3969079902034</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0461829879942</v>
+        <v>18.79093873368</v>
       </c>
       <c r="G6" t="n">
-        <v>1.79952499627266</v>
+        <v>2.13498887337136</v>
       </c>
       <c r="H6" t="n">
-        <v>21.3883217276107</v>
+        <v>21.052857850512</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -687,25 +687,25 @@
         <v>22.2490594431904</v>
       </c>
       <c r="B7" t="n">
-        <v>6.38005608228321</v>
+        <v>6.83618792746791</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7538671878345</v>
+        <v>11.0035303025057</v>
       </c>
       <c r="D7" t="n">
-        <v>32.7442516985463</v>
+        <v>33.4945885838751</v>
       </c>
       <c r="E7" t="n">
-        <v>9.74414952191527</v>
+        <v>8.85013110535326</v>
       </c>
       <c r="F7" t="n">
-        <v>34.7539693644655</v>
+        <v>35.6479877810275</v>
       </c>
       <c r="G7" t="n">
-        <v>5.81403497522881</v>
+        <v>4.63903934203302</v>
       </c>
       <c r="H7" t="n">
-        <v>38.6840839111519</v>
+        <v>39.8590795443477</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -728,25 +728,25 @@
         <v>1.26804536983362</v>
       </c>
       <c r="B8" t="n">
-        <v>0.26957109538175</v>
+        <v>0.245235149308395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.82460091793064</v>
+        <v>0.86463354922131</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7114898217366</v>
+        <v>1.67145719044593</v>
       </c>
       <c r="E8" t="n">
-        <v>0.739686022885388</v>
+        <v>0.787384477189166</v>
       </c>
       <c r="F8" t="n">
-        <v>1.79640471678185</v>
+        <v>1.74870626247807</v>
       </c>
       <c r="G8" t="n">
-        <v>0.57363022813023</v>
+        <v>0.636319625215194</v>
       </c>
       <c r="H8" t="n">
-        <v>1.96246051153701</v>
+        <v>1.89977111445204</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -769,25 +769,25 @@
         <v>1.10760417651921</v>
       </c>
       <c r="B9" t="n">
-        <v>0.275373685525675</v>
+        <v>0.274015020562737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.654614463829475</v>
+        <v>0.656849467693509</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56059388920895</v>
+        <v>1.55835888534491</v>
       </c>
       <c r="E9" t="n">
-        <v>0.567871752888887</v>
+        <v>0.570534736216247</v>
       </c>
       <c r="F9" t="n">
-        <v>1.64733660014953</v>
+        <v>1.64467361682217</v>
       </c>
       <c r="G9" t="n">
-        <v>0.398241562605071</v>
+        <v>0.401741483549601</v>
       </c>
       <c r="H9" t="n">
-        <v>1.81696679043335</v>
+        <v>1.81346686948882</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -810,25 +810,25 @@
         <v>1.50610316863139</v>
       </c>
       <c r="B10" t="n">
-        <v>0.494989588345554</v>
+        <v>0.517889809362172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.69184529580295</v>
+        <v>0.654174432230612</v>
       </c>
       <c r="D10" t="n">
-        <v>2.32036104145982</v>
+        <v>2.35803190503216</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5359235754741</v>
+        <v>0.491039142281527</v>
       </c>
       <c r="F10" t="n">
-        <v>2.47628276178867</v>
+        <v>2.52116719498124</v>
       </c>
       <c r="G10" t="n">
-        <v>0.231009989053239</v>
+        <v>0.172019019714429</v>
       </c>
       <c r="H10" t="n">
-        <v>2.78119634820953</v>
+        <v>2.84018731754834</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -851,25 +851,25 @@
         <v>0.220683510325482</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0470061901127874</v>
+        <v>0.0529042945781909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.143358327589947</v>
+        <v>0.133655945744358</v>
       </c>
       <c r="D11" t="n">
-        <v>0.298008693061017</v>
+        <v>0.307711074906606</v>
       </c>
       <c r="E11" t="n">
-        <v>0.128551377704419</v>
+        <v>0.116991092952228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.312815642946545</v>
+        <v>0.324375927698736</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0995955645949416</v>
+        <v>0.0844020474920622</v>
       </c>
       <c r="H11" t="n">
-        <v>0.341771456056022</v>
+        <v>0.356964973158902</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -892,25 +892,25 @@
         <v>0.152373091941782</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0565772763929756</v>
+        <v>0.0581035977352348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0593034722753372</v>
+        <v>0.0567926736673208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245442711608227</v>
+        <v>0.247953510216243</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0414816302115498</v>
+        <v>0.0384900403807218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.263264553672014</v>
+        <v>0.266256143502842</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00663002795347686</v>
+        <v>0.00269822417581719</v>
       </c>
       <c r="H12" t="n">
-        <v>0.298116155930087</v>
+        <v>0.302047959707747</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -933,28 +933,28 @@
         <v>0.139561158815004</v>
       </c>
       <c r="B13" t="n">
-        <v>0.075471444354754</v>
+        <v>0.072817497504485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0154106328514338</v>
+        <v>0.0197763754201263</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263711684778574</v>
+        <v>0.259345942209882</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.00836287212031367</v>
+        <v>-0.0031611362937865</v>
       </c>
       <c r="F13" t="n">
-        <v>0.287485189750322</v>
+        <v>0.282283453923795</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0548532818428421</v>
+        <v>-0.0480167147565493</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33397559947285</v>
+        <v>0.327139032386558</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -974,25 +974,25 @@
         <v>2.98383788582597</v>
       </c>
       <c r="B14" t="n">
-        <v>0.68714805093944</v>
+        <v>0.680522822194474</v>
       </c>
       <c r="C14" t="n">
-        <v>1.85347934203059</v>
+        <v>1.86437784331606</v>
       </c>
       <c r="D14" t="n">
-        <v>4.11419642962135</v>
+        <v>4.10329792833588</v>
       </c>
       <c r="E14" t="n">
-        <v>1.63702770598466</v>
+        <v>1.6500131543248</v>
       </c>
       <c r="F14" t="n">
-        <v>4.33064806566727</v>
+        <v>4.31766261732714</v>
       </c>
       <c r="G14" t="n">
-        <v>1.21374450660597</v>
+        <v>1.230811095853</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75393126504596</v>
+        <v>4.73686467579893</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1001,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1015,25 +1015,25 @@
         <v>2.63356052538161</v>
       </c>
       <c r="B15" t="n">
-        <v>0.576057415088314</v>
+        <v>0.628834491949437</v>
       </c>
       <c r="C15" t="n">
-        <v>1.68594607756134</v>
+        <v>1.59912778612479</v>
       </c>
       <c r="D15" t="n">
-        <v>3.58117497320189</v>
+        <v>3.66799326463843</v>
       </c>
       <c r="E15" t="n">
-        <v>1.50448799180852</v>
+        <v>1.40104492116072</v>
       </c>
       <c r="F15" t="n">
-        <v>3.76263305895471</v>
+        <v>3.86607612960251</v>
       </c>
       <c r="G15" t="n">
-        <v>1.14963662411412</v>
+        <v>1.01368287411986</v>
       </c>
       <c r="H15" t="n">
-        <v>4.11748442664911</v>
+        <v>4.25343817664336</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1042,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1056,25 +1056,25 @@
         <v>3.76418519846032</v>
       </c>
       <c r="B16" t="n">
-        <v>0.860556174100007</v>
+        <v>0.863109296138655</v>
       </c>
       <c r="C16" t="n">
-        <v>2.3485702920658</v>
+        <v>2.34437040631223</v>
       </c>
       <c r="D16" t="n">
-        <v>5.17980010485483</v>
+        <v>5.1839999906084</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0774950972243</v>
+        <v>2.07249097802855</v>
       </c>
       <c r="F16" t="n">
-        <v>5.45087529969633</v>
+        <v>5.45587941889208</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5473924939787</v>
+        <v>1.54081565160714</v>
       </c>
       <c r="H16" t="n">
-        <v>5.98097790294193</v>
+        <v>5.98755474531349</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1083,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1097,25 +1097,25 @@
         <v>-0.039860958389015</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0120330457089581</v>
+        <v>0.0119111361169991</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.059655318580251</v>
+        <v>-0.0594547773014785</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.020066598197779</v>
+        <v>-0.0202671394765516</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0634457279785728</v>
+        <v>-0.0632067851783332</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0162761887994572</v>
+        <v>-0.0165151315996969</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.070858084135291</v>
+        <v>-0.0705440450264046</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00886383264273907</v>
+        <v>-0.00917787175162544</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1138,34 +1138,34 @@
         <v>-0.0172926807667382</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00918026815732304</v>
+        <v>0.00828845714100497</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0323942218855346</v>
+        <v>-0.0309271927636914</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00219113964794185</v>
+        <v>-0.00365816876978508</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0352860063550914</v>
+        <v>-0.033538056763108</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000700644821614905</v>
+        <v>-0.00104730477036851</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0409410515400024</v>
+        <v>-0.038643746361967</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0063556900065259</v>
+        <v>0.00405838482849055</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1179,34 +1179,34 @@
         <v>-0.0111111859591347</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0105471875231378</v>
+        <v>0.0102937108712124</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0284613094346963</v>
+        <v>-0.028044340342279</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00623893751642694</v>
+        <v>0.00582196842400964</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0317836735044847</v>
+        <v>-0.0312868592667109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00956130158621534</v>
+        <v>0.00906448734844154</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0382807410187376</v>
+        <v>-0.0376277851633778</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0160583691004682</v>
+        <v>0.0154054132451084</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1220,25 +1220,25 @@
         <v>0.180290874524715</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0408493503542512</v>
+        <v>0.0421552112433464</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113093693191972</v>
+        <v>0.11094555202941</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247488055857458</v>
+        <v>0.24963619702002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.100226147830383</v>
+        <v>0.0976666604877558</v>
       </c>
       <c r="F20" t="n">
-        <v>0.260355601219047</v>
+        <v>0.262915088561674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0750629480121638</v>
+        <v>0.0716990503618544</v>
       </c>
       <c r="H20" t="n">
-        <v>0.285518801037266</v>
+        <v>0.288882698687575</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1261,25 +1261,25 @@
         <v>0.103667717381153</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0298047982241533</v>
+        <v>0.0309834358975746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0546388243024203</v>
+        <v>0.0526999653296423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.152696610459885</v>
+        <v>0.154635469432663</v>
       </c>
       <c r="E21" t="n">
-        <v>0.045250312861812</v>
+        <v>0.0429401830219063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.162085121900493</v>
+        <v>0.164395251740399</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0268905571557336</v>
+        <v>0.0238543865090004</v>
       </c>
       <c r="H21" t="n">
-        <v>0.180444877606571</v>
+        <v>0.183481048253305</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1302,25 +1302,25 @@
         <v>0.10650281888654</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0470129190091849</v>
+        <v>0.0480740172412476</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0291665671164307</v>
+        <v>0.0274210605246875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.183839070656649</v>
+        <v>0.185584577248392</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0143574976285375</v>
+        <v>0.0122777450936946</v>
       </c>
       <c r="F22" t="n">
-        <v>0.198648140144542</v>
+        <v>0.200727892679385</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0146024604811204</v>
+        <v>-0.017335849526914</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2276080982542</v>
+        <v>0.230341487299994</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1343,25 +1343,25 @@
         <v>0.492582367852701</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0420570403097061</v>
+        <v>0.0451082130494297</v>
       </c>
       <c r="C23" t="n">
-        <v>0.423398536543235</v>
+        <v>0.41837935738639</v>
       </c>
       <c r="D23" t="n">
-        <v>0.561766199162168</v>
+        <v>0.566785378319013</v>
       </c>
       <c r="E23" t="n">
-        <v>0.410150568845677</v>
+        <v>0.404170270275819</v>
       </c>
       <c r="F23" t="n">
-        <v>0.575014166859725</v>
+        <v>0.580994465429583</v>
       </c>
       <c r="G23" t="n">
-        <v>0.384243432014898</v>
+        <v>0.376383611037371</v>
       </c>
       <c r="H23" t="n">
-        <v>0.600921303690504</v>
+        <v>0.608781124668032</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1384,25 +1384,25 @@
         <v>0.251566811559039</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0343336174668365</v>
+        <v>0.0344922926327135</v>
       </c>
       <c r="C24" t="n">
-        <v>0.195088010826093</v>
+        <v>0.194826990178226</v>
       </c>
       <c r="D24" t="n">
-        <v>0.308045612291985</v>
+        <v>0.308306632939853</v>
       </c>
       <c r="E24" t="n">
-        <v>0.18427292132404</v>
+        <v>0.183961917998921</v>
       </c>
       <c r="F24" t="n">
-        <v>0.318860701794039</v>
+        <v>0.319171705119158</v>
       </c>
       <c r="G24" t="n">
-        <v>0.163123412964468</v>
+        <v>0.162714665737169</v>
       </c>
       <c r="H24" t="n">
-        <v>0.34001021015361</v>
+        <v>0.340418957380909</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1425,25 +1425,25 @@
         <v>0.182687484324053</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0417669974365005</v>
+        <v>0.0427640943823795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11398077354101</v>
+        <v>0.112340549065039</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251394195107096</v>
+        <v>0.253034419583067</v>
       </c>
       <c r="E25" t="n">
-        <v>0.100824169348512</v>
+        <v>0.0988698593345893</v>
       </c>
       <c r="F25" t="n">
-        <v>0.264550799299594</v>
+        <v>0.266505109313517</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0750956989276278</v>
+        <v>0.0725271771950435</v>
       </c>
       <c r="H25" t="n">
-        <v>0.290279269720478</v>
+        <v>0.292847791453063</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1466,25 +1466,25 @@
         <v>1.07982792576353</v>
       </c>
       <c r="B26" t="n">
-        <v>0.204018073732624</v>
+        <v>0.193345231098867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.744218194473366</v>
+        <v>0.761775020605896</v>
       </c>
       <c r="D26" t="n">
-        <v>1.4154376570537</v>
+        <v>1.39788083092117</v>
       </c>
       <c r="E26" t="n">
-        <v>0.679952501247589</v>
+        <v>0.700871272809752</v>
       </c>
       <c r="F26" t="n">
-        <v>1.47970335027947</v>
+        <v>1.45878457871731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.554277367828293</v>
+        <v>0.58177061045285</v>
       </c>
       <c r="H26" t="n">
-        <v>1.60537848369877</v>
+        <v>1.57788524107421</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1507,25 +1507,25 @@
         <v>18.1399536961584</v>
       </c>
       <c r="B27" t="n">
-        <v>3.38149426825788</v>
+        <v>3.25373616573828</v>
       </c>
       <c r="C27" t="n">
-        <v>12.5773956248742</v>
+        <v>12.7875577035189</v>
       </c>
       <c r="D27" t="n">
-        <v>23.7025117674426</v>
+        <v>23.4923496887979</v>
       </c>
       <c r="E27" t="n">
-        <v>11.5122249303729</v>
+        <v>11.7626308113114</v>
       </c>
       <c r="F27" t="n">
-        <v>24.7676824619438</v>
+        <v>24.5172765810054</v>
       </c>
       <c r="G27" t="n">
-        <v>9.42922446112608</v>
+        <v>9.75832933321658</v>
       </c>
       <c r="H27" t="n">
-        <v>26.8506829311907</v>
+        <v>26.5215780591002</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1548,25 +1548,25 @@
         <v>1.23485022694241</v>
       </c>
       <c r="B28" t="n">
-        <v>0.180068293260453</v>
+        <v>0.187173918017209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.93863788452896</v>
+        <v>0.926949131804097</v>
       </c>
       <c r="D28" t="n">
-        <v>1.53106256935585</v>
+        <v>1.54275132208071</v>
       </c>
       <c r="E28" t="n">
-        <v>0.881916372151918</v>
+        <v>0.867989347628677</v>
       </c>
       <c r="F28" t="n">
-        <v>1.58778408173289</v>
+        <v>1.60171110625614</v>
       </c>
       <c r="G28" t="n">
-        <v>0.770994303503479</v>
+        <v>0.752690214130076</v>
       </c>
       <c r="H28" t="n">
-        <v>1.69870615038133</v>
+        <v>1.71701023975474</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1589,25 +1589,25 @@
         <v>0.177557648451799</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0362144940195658</v>
+        <v>0.0327177462082065</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117984805789613</v>
+        <v>0.123736955939299</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237130491113985</v>
+        <v>0.231378340964298</v>
       </c>
       <c r="E29" t="n">
-        <v>0.10657724017345</v>
+        <v>0.113430865883714</v>
       </c>
       <c r="F29" t="n">
-        <v>0.248538056730148</v>
+        <v>0.241684431019883</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0842691118573973</v>
+        <v>0.0932767342194589</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2708461850462</v>
+        <v>0.261838562684139</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1630,25 +1630,25 @@
         <v>2.96557199576974</v>
       </c>
       <c r="B30" t="n">
-        <v>0.409858306215331</v>
+        <v>0.448120254579077</v>
       </c>
       <c r="C30" t="n">
-        <v>2.29135508204552</v>
+        <v>2.22841417698716</v>
       </c>
       <c r="D30" t="n">
-        <v>3.63978890949396</v>
+        <v>3.70272981455232</v>
       </c>
       <c r="E30" t="n">
-        <v>2.16224971558769</v>
+        <v>2.08725629679475</v>
       </c>
       <c r="F30" t="n">
-        <v>3.76889427595179</v>
+        <v>3.84388769474473</v>
       </c>
       <c r="G30" t="n">
-        <v>1.90977699895904</v>
+        <v>1.81121421997404</v>
       </c>
       <c r="H30" t="n">
-        <v>4.02136699258043</v>
+        <v>4.11992977156544</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -1657,7 +1657,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1671,25 +1671,25 @@
         <v>-0.0254647469315723</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00660040050910002</v>
+        <v>0.00648567159751876</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0363224057690418</v>
+        <v>-0.0361336767094907</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0146070880941028</v>
+        <v>-0.0147958171536539</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0384015319294083</v>
+        <v>-0.0381766632627091</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0125279619337362</v>
+        <v>-0.0127528306004355</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0424673786430139</v>
+        <v>-0.0421718369667806</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.00846211522013063</v>
+        <v>-0.00875765689636397</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1698,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1712,25 +1712,25 @@
         <v>0.135247059586098</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0223237213942537</v>
+        <v>0.0236207007860021</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0985245378925502</v>
+        <v>0.0963910067931242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.171969581279645</v>
+        <v>0.174103112379071</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0914925656533602</v>
+        <v>0.0889504860455335</v>
       </c>
       <c r="F32" t="n">
-        <v>0.179001553518835</v>
+        <v>0.181543633126662</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0777411532744999</v>
+        <v>0.0744001343613562</v>
       </c>
       <c r="H32" t="n">
-        <v>0.192752965897695</v>
+        <v>0.196093984810839</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1753,25 +1753,25 @@
         <v>0.352010257990241</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0241460055191045</v>
+        <v>0.0269964034977949</v>
       </c>
       <c r="C33" t="n">
-        <v>0.312290078911314</v>
+        <v>0.307601174236368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.391730437069167</v>
+        <v>0.396419341744113</v>
       </c>
       <c r="E33" t="n">
-        <v>0.304684087172796</v>
+        <v>0.299097307134563</v>
       </c>
       <c r="F33" t="n">
-        <v>0.399336428807685</v>
+        <v>0.404923208845919</v>
       </c>
       <c r="G33" t="n">
-        <v>0.289810147773027</v>
+        <v>0.282467522579921</v>
       </c>
       <c r="H33" t="n">
-        <v>0.414210368207454</v>
+        <v>0.42155299340056</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>

--- a/Output_code/Data/Table_2_absolute.xlsx
+++ b/Output_code/Data/Table_2_absolute.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -71,40 +71,40 @@
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group2</t>
+    <t xml:space="preserve">IQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueSubclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herfindahl</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueSubclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herfindahl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shannon</t>
   </si>
   <si>
     <t xml:space="preserve">AIcodes</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group0</t>
+    <t xml:space="preserve">All</t>
   </si>
 </sst>
 </file>
@@ -482,25 +482,25 @@
         <v>1.78820167640335</v>
       </c>
       <c r="B2" t="n">
-        <v>0.374372401071109</v>
+        <v>0.385049110171849</v>
       </c>
       <c r="C2" t="n">
-        <v>1.17235907664138</v>
+        <v>1.15479589017066</v>
       </c>
       <c r="D2" t="n">
-        <v>2.40404427616533</v>
+        <v>2.42160746263604</v>
       </c>
       <c r="E2" t="n">
-        <v>1.05443177030398</v>
+        <v>1.03350542046653</v>
       </c>
       <c r="F2" t="n">
-        <v>2.52197158250273</v>
+        <v>2.54289793234018</v>
       </c>
       <c r="G2" t="n">
-        <v>0.823818371244177</v>
+        <v>0.796315168600671</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75258498156253</v>
+        <v>2.78008818420603</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -523,25 +523,25 @@
         <v>0.631764610606147</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293998731802126</v>
+        <v>0.274289218943627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14813669679165</v>
+        <v>0.18055884544388</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11539252442064</v>
+        <v>1.08297037576841</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0555270962739806</v>
+        <v>0.0941577414766376</v>
       </c>
       <c r="F3" t="n">
-        <v>1.20800212493831</v>
+        <v>1.16937147973566</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.125576122516129</v>
+        <v>-0.0748044173926369</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38910534372842</v>
+        <v>1.33833363860493</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -564,25 +564,25 @@
         <v>0.617193394249308</v>
       </c>
       <c r="B4" t="n">
-        <v>0.378544487624809</v>
+        <v>0.335564829233318</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00551228789350167</v>
+        <v>0.0651892501605006</v>
       </c>
       <c r="D4" t="n">
-        <v>1.23989907639212</v>
+        <v>1.16919753833812</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.124753801495316</v>
+        <v>-0.0405136710479945</v>
       </c>
       <c r="F4" t="n">
-        <v>1.35914058999393</v>
+        <v>1.27490045954661</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.357937205872198</v>
+        <v>-0.247221605855718</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59232399437082</v>
+        <v>1.48160839435434</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -605,25 +605,25 @@
         <v>22.2329187061521</v>
       </c>
       <c r="B5" t="n">
-        <v>6.13736509398814</v>
+        <v>6.74629608066296</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1369531265416</v>
+        <v>11.1352616534616</v>
       </c>
       <c r="D5" t="n">
-        <v>32.3288842857626</v>
+        <v>33.3305757588427</v>
       </c>
       <c r="E5" t="n">
-        <v>10.2036831219354</v>
+        <v>9.01017838805274</v>
       </c>
       <c r="F5" t="n">
-        <v>34.2621542903689</v>
+        <v>35.4556590242515</v>
       </c>
       <c r="G5" t="n">
-        <v>6.42306622403868</v>
+        <v>4.85446000236435</v>
       </c>
       <c r="H5" t="n">
-        <v>38.0427711882656</v>
+        <v>39.6113774099399</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -646,25 +646,25 @@
         <v>11.5939233619417</v>
       </c>
       <c r="B6" t="n">
-        <v>3.67194661823382</v>
+        <v>3.53373092117237</v>
       </c>
       <c r="C6" t="n">
-        <v>5.55357117494705</v>
+        <v>5.78093599661315</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6342755489363</v>
+        <v>17.4069107272702</v>
       </c>
       <c r="E6" t="n">
-        <v>4.3969079902034</v>
+        <v>4.66781075644385</v>
       </c>
       <c r="F6" t="n">
-        <v>18.79093873368</v>
+        <v>18.5200359674395</v>
       </c>
       <c r="G6" t="n">
-        <v>2.13498887337136</v>
+        <v>2.49103250900167</v>
       </c>
       <c r="H6" t="n">
-        <v>21.052857850512</v>
+        <v>20.6968142148817</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -687,25 +687,25 @@
         <v>22.2490594431904</v>
       </c>
       <c r="B7" t="n">
-        <v>6.83618792746791</v>
+        <v>6.2655045004859</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0035303025057</v>
+        <v>11.9423045398911</v>
       </c>
       <c r="D7" t="n">
-        <v>33.4945885838751</v>
+        <v>32.5558143464897</v>
       </c>
       <c r="E7" t="n">
-        <v>8.85013110535326</v>
+        <v>9.968670622238</v>
       </c>
       <c r="F7" t="n">
-        <v>35.6479877810275</v>
+        <v>34.5294482641427</v>
       </c>
       <c r="G7" t="n">
-        <v>4.63903934203302</v>
+        <v>6.10911984993869</v>
       </c>
       <c r="H7" t="n">
-        <v>39.8590795443477</v>
+        <v>38.388999036442</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -728,25 +728,25 @@
         <v>1.26804536983362</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245235149308395</v>
+        <v>0.261939802896621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.86463354922131</v>
+        <v>0.837154394068678</v>
       </c>
       <c r="D8" t="n">
-        <v>1.67145719044593</v>
+        <v>1.69893634559856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.787384477189166</v>
+        <v>0.754643356156242</v>
       </c>
       <c r="F8" t="n">
-        <v>1.74870626247807</v>
+        <v>1.781447383511</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636319625215194</v>
+        <v>0.593288437571923</v>
       </c>
       <c r="H8" t="n">
-        <v>1.89977111445204</v>
+        <v>1.94280230209531</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -769,25 +769,25 @@
         <v>1.10760417651921</v>
       </c>
       <c r="B9" t="n">
-        <v>0.274015020562737</v>
+        <v>0.278433021320715</v>
       </c>
       <c r="C9" t="n">
-        <v>0.656849467693509</v>
+        <v>0.649581856446635</v>
       </c>
       <c r="D9" t="n">
-        <v>1.55835888534491</v>
+        <v>1.56562649659179</v>
       </c>
       <c r="E9" t="n">
-        <v>0.570534736216247</v>
+        <v>0.56187545473061</v>
       </c>
       <c r="F9" t="n">
-        <v>1.64467361682217</v>
+        <v>1.65333289830781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.401741483549601</v>
+        <v>0.390360713597049</v>
       </c>
       <c r="H9" t="n">
-        <v>1.81346686948882</v>
+        <v>1.82484763944137</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -810,25 +810,25 @@
         <v>1.50610316863139</v>
       </c>
       <c r="B10" t="n">
-        <v>0.517889809362172</v>
+        <v>0.537724321152638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.654174432230612</v>
+        <v>0.621546660335295</v>
       </c>
       <c r="D10" t="n">
-        <v>2.35803190503216</v>
+        <v>2.39065967692748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.491039142281527</v>
+        <v>0.452163499172214</v>
       </c>
       <c r="F10" t="n">
-        <v>2.52116719498124</v>
+        <v>2.56004283809056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.172019019714429</v>
+        <v>0.120925317342188</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84018731754834</v>
+        <v>2.89128101992058</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -851,25 +851,25 @@
         <v>0.220683510325482</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0529042945781909</v>
+        <v>0.0496909680710811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.133655945744358</v>
+        <v>0.138941867848553</v>
       </c>
       <c r="D11" t="n">
-        <v>0.307711074906606</v>
+        <v>0.30242515280241</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116991092952228</v>
+        <v>0.123289212906163</v>
       </c>
       <c r="F11" t="n">
-        <v>0.324375927698736</v>
+        <v>0.318077807744801</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0844020474920622</v>
+        <v>0.0926795765743769</v>
       </c>
       <c r="H11" t="n">
-        <v>0.356964973158902</v>
+        <v>0.348687444076587</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -892,25 +892,25 @@
         <v>0.152373091941782</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0581035977352348</v>
+        <v>0.0585545423904093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0567926736673208</v>
+        <v>0.0560508697095587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247953510216243</v>
+        <v>0.248695314174005</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0384900403807218</v>
+        <v>0.0376061888565798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.266256143502842</v>
+        <v>0.267139995026984</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00269822417581719</v>
+        <v>0.00153659074408766</v>
       </c>
       <c r="H12" t="n">
-        <v>0.302047959707747</v>
+        <v>0.303209593139476</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -933,28 +933,28 @@
         <v>0.139561158815004</v>
       </c>
       <c r="B13" t="n">
-        <v>0.072817497504485</v>
+        <v>0.0713827121808632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0197763754201263</v>
+        <v>0.0221365972774841</v>
       </c>
       <c r="D13" t="n">
-        <v>0.259345942209882</v>
+        <v>0.256985720352524</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0031611362937865</v>
+        <v>-0.000348957059487842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.282283453923795</v>
+        <v>0.279471274689496</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0480167147565493</v>
+        <v>-0.0443207077628996</v>
       </c>
       <c r="H13" t="n">
-        <v>0.327139032386558</v>
+        <v>0.323443025392908</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -974,25 +974,25 @@
         <v>2.98383788582597</v>
       </c>
       <c r="B14" t="n">
-        <v>0.680522822194474</v>
+        <v>0.652645705874031</v>
       </c>
       <c r="C14" t="n">
-        <v>1.86437784331606</v>
+        <v>1.91023569966319</v>
       </c>
       <c r="D14" t="n">
-        <v>4.10329792833588</v>
+        <v>4.05744007198875</v>
       </c>
       <c r="E14" t="n">
-        <v>1.6500131543248</v>
+        <v>1.70465230231287</v>
       </c>
       <c r="F14" t="n">
-        <v>4.31766261732714</v>
+        <v>4.26302346933907</v>
       </c>
       <c r="G14" t="n">
-        <v>1.230811095853</v>
+        <v>1.30262254749446</v>
       </c>
       <c r="H14" t="n">
-        <v>4.73686467579893</v>
+        <v>4.66505322415747</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1001,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1015,25 +1015,25 @@
         <v>2.63356052538161</v>
       </c>
       <c r="B15" t="n">
-        <v>0.628834491949437</v>
+        <v>0.599938520363241</v>
       </c>
       <c r="C15" t="n">
-        <v>1.59912778612479</v>
+        <v>1.64666165938408</v>
       </c>
       <c r="D15" t="n">
-        <v>3.66799326463843</v>
+        <v>3.62045939137914</v>
       </c>
       <c r="E15" t="n">
-        <v>1.40104492116072</v>
+        <v>1.45768102546966</v>
       </c>
       <c r="F15" t="n">
-        <v>3.86607612960251</v>
+        <v>3.80944002529356</v>
       </c>
       <c r="G15" t="n">
-        <v>1.01368287411986</v>
+        <v>1.0881188969259</v>
       </c>
       <c r="H15" t="n">
-        <v>4.25343817664336</v>
+        <v>4.17900215383732</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1042,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1056,25 +1056,25 @@
         <v>3.76418519846032</v>
       </c>
       <c r="B16" t="n">
-        <v>0.863109296138655</v>
+        <v>0.904238326624811</v>
       </c>
       <c r="C16" t="n">
-        <v>2.34437040631223</v>
+        <v>2.2767131511625</v>
       </c>
       <c r="D16" t="n">
-        <v>5.1839999906084</v>
+        <v>5.25165724575813</v>
       </c>
       <c r="E16" t="n">
-        <v>2.07249097802855</v>
+        <v>1.99187807827569</v>
       </c>
       <c r="F16" t="n">
-        <v>5.45587941889208</v>
+        <v>5.53649231864495</v>
       </c>
       <c r="G16" t="n">
-        <v>1.54081565160714</v>
+        <v>1.4348672690748</v>
       </c>
       <c r="H16" t="n">
-        <v>5.98755474531349</v>
+        <v>6.09350312784583</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1083,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1097,25 +1097,25 @@
         <v>-0.039860958389015</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0119111361169991</v>
+        <v>0.0113300105246385</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0594547773014785</v>
+        <v>-0.0584988257020453</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0202671394765516</v>
+        <v>-0.0212230910759847</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0632067851783332</v>
+        <v>-0.0620677790173065</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0165151315996969</v>
+        <v>-0.0176541377607236</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0705440450264046</v>
+        <v>-0.0690470655004838</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00917787175162544</v>
+        <v>-0.0106748512775463</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1138,34 +1138,34 @@
         <v>-0.0172926807667382</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00828845714100497</v>
+        <v>0.00901202611859508</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0309271927636914</v>
+        <v>-0.0321174637318272</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00365816876978508</v>
+        <v>-0.00246789780164934</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.033538056763108</v>
+        <v>-0.0349562519591846</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00104730477036851</v>
+        <v>0.000370890425708113</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.038643746361967</v>
+        <v>-0.0405076600482392</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00405838482849055</v>
+        <v>0.00592229851476269</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1179,34 +1179,34 @@
         <v>-0.0111111859591347</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0102937108712124</v>
+        <v>0.0100781454894234</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.028044340342279</v>
+        <v>-0.0276897352892361</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00582196842400964</v>
+        <v>0.00546736337096673</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0312868592667109</v>
+        <v>-0.0308643511184045</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00906448734844154</v>
+        <v>0.00864197920013509</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0376277851633778</v>
+        <v>-0.0370724887398893</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0154054132451084</v>
+        <v>0.0148501168216199</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1220,25 +1220,25 @@
         <v>0.180290874524715</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0421552112433464</v>
+        <v>0.0437212756406487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11094555202941</v>
+        <v>0.108369376095848</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24963619702002</v>
+        <v>0.252212372953582</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0976666604877558</v>
+        <v>0.0945971742690433</v>
       </c>
       <c r="F20" t="n">
-        <v>0.262915088561674</v>
+        <v>0.265984574780386</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0716990503618544</v>
+        <v>0.0676648684744037</v>
       </c>
       <c r="H20" t="n">
-        <v>0.288882698687575</v>
+        <v>0.292916880575026</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1261,25 +1261,25 @@
         <v>0.103667717381153</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0309834358975746</v>
+        <v>0.029666889420193</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0526999653296423</v>
+        <v>0.054865684284935</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154635469432663</v>
+        <v>0.15246975047737</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0429401830219063</v>
+        <v>0.0455206141175742</v>
       </c>
       <c r="F21" t="n">
-        <v>0.164395251740399</v>
+        <v>0.161814820644731</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0238543865090004</v>
+        <v>0.0272458102347353</v>
       </c>
       <c r="H21" t="n">
-        <v>0.183481048253305</v>
+        <v>0.18008962452757</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1302,25 +1302,25 @@
         <v>0.10650281888654</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0480740172412476</v>
+        <v>0.0466411835740067</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0274210605246875</v>
+        <v>0.0297780719072989</v>
       </c>
       <c r="D22" t="n">
-        <v>0.185584577248392</v>
+        <v>0.183227565865781</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0122777450936946</v>
+        <v>0.0150860990814868</v>
       </c>
       <c r="F22" t="n">
-        <v>0.200727892679385</v>
+        <v>0.197919538691593</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.017335849526914</v>
+        <v>-0.0136448700001014</v>
       </c>
       <c r="H22" t="n">
-        <v>0.230341487299994</v>
+        <v>0.226650507773181</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1343,25 +1343,25 @@
         <v>0.492582367852701</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0451082130494297</v>
+        <v>0.0406905546844163</v>
       </c>
       <c r="C23" t="n">
-        <v>0.41837935738639</v>
+        <v>0.425646405396836</v>
       </c>
       <c r="D23" t="n">
-        <v>0.566785378319013</v>
+        <v>0.559518330308566</v>
       </c>
       <c r="E23" t="n">
-        <v>0.404170270275819</v>
+        <v>0.412828880671245</v>
       </c>
       <c r="F23" t="n">
-        <v>0.580994465429583</v>
+        <v>0.572335855034157</v>
       </c>
       <c r="G23" t="n">
-        <v>0.376383611037371</v>
+        <v>0.387763498985645</v>
       </c>
       <c r="H23" t="n">
-        <v>0.608781124668032</v>
+        <v>0.597401236719758</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1384,25 +1384,25 @@
         <v>0.251566811559039</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0344922926327135</v>
+        <v>0.0326717714605785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.194826990178226</v>
+        <v>0.197821747506388</v>
       </c>
       <c r="D24" t="n">
-        <v>0.308306632939853</v>
+        <v>0.305311875611691</v>
       </c>
       <c r="E24" t="n">
-        <v>0.183961917998921</v>
+        <v>0.187530139496305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.319171705119158</v>
+        <v>0.315603483621773</v>
       </c>
       <c r="G24" t="n">
-        <v>0.162714665737169</v>
+        <v>0.167404328276589</v>
       </c>
       <c r="H24" t="n">
-        <v>0.340418957380909</v>
+        <v>0.335729294841489</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1425,25 +1425,25 @@
         <v>0.182687484324053</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0427640943823795</v>
+        <v>0.0390904828292958</v>
       </c>
       <c r="C25" t="n">
-        <v>0.112340549065039</v>
+        <v>0.118383640069862</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253034419583067</v>
+        <v>0.246991328578245</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0988698593345893</v>
+        <v>0.106070137978633</v>
       </c>
       <c r="F25" t="n">
-        <v>0.266505109313517</v>
+        <v>0.259304830669473</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0725271771950435</v>
+        <v>0.0819904005557871</v>
       </c>
       <c r="H25" t="n">
-        <v>0.292847791453063</v>
+        <v>0.283384568092319</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1466,25 +1466,25 @@
         <v>1.07982792576353</v>
       </c>
       <c r="B26" t="n">
-        <v>0.193345231098867</v>
+        <v>0.214566857549333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.761775020605896</v>
+        <v>0.72686544509488</v>
       </c>
       <c r="D26" t="n">
-        <v>1.39788083092117</v>
+        <v>1.43279040643218</v>
       </c>
       <c r="E26" t="n">
-        <v>0.700871272809752</v>
+        <v>0.65927688496684</v>
       </c>
       <c r="F26" t="n">
-        <v>1.45878457871731</v>
+        <v>1.50037896656022</v>
       </c>
       <c r="G26" t="n">
-        <v>0.58177061045285</v>
+        <v>0.527103700716451</v>
       </c>
       <c r="H26" t="n">
-        <v>1.57788524107421</v>
+        <v>1.63255215081061</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1507,25 +1507,25 @@
         <v>18.1399536961584</v>
       </c>
       <c r="B27" t="n">
-        <v>3.25373616573828</v>
+        <v>3.4810126969398</v>
       </c>
       <c r="C27" t="n">
-        <v>12.7875577035189</v>
+        <v>12.4136878096924</v>
       </c>
       <c r="D27" t="n">
-        <v>23.4923496887979</v>
+        <v>23.8662195826244</v>
       </c>
       <c r="E27" t="n">
-        <v>11.7626308113114</v>
+        <v>11.3171688101564</v>
       </c>
       <c r="F27" t="n">
-        <v>24.5172765810054</v>
+        <v>24.9627385821604</v>
       </c>
       <c r="G27" t="n">
-        <v>9.75832933321658</v>
+        <v>9.17286498884147</v>
       </c>
       <c r="H27" t="n">
-        <v>26.5215780591002</v>
+        <v>27.1070424034753</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1548,25 +1548,25 @@
         <v>1.23485022694241</v>
       </c>
       <c r="B28" t="n">
-        <v>0.187173918017209</v>
+        <v>0.176587636515578</v>
       </c>
       <c r="C28" t="n">
-        <v>0.926949131804097</v>
+        <v>0.94436356487428</v>
       </c>
       <c r="D28" t="n">
-        <v>1.54275132208071</v>
+        <v>1.52533688901053</v>
       </c>
       <c r="E28" t="n">
-        <v>0.867989347628677</v>
+        <v>0.888738459371873</v>
       </c>
       <c r="F28" t="n">
-        <v>1.60171110625614</v>
+        <v>1.58096199451294</v>
       </c>
       <c r="G28" t="n">
-        <v>0.752690214130076</v>
+        <v>0.779960475278276</v>
       </c>
       <c r="H28" t="n">
-        <v>1.71701023975474</v>
+        <v>1.68973997860654</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1589,25 +1589,25 @@
         <v>0.177557648451799</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0327177462082065</v>
+        <v>0.0342016746542791</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123736955939299</v>
+        <v>0.12129589364551</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231378340964298</v>
+        <v>0.233819403258088</v>
       </c>
       <c r="E29" t="n">
-        <v>0.113430865883714</v>
+        <v>0.110522366129412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.241684431019883</v>
+        <v>0.244592930774186</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0932767342194589</v>
+        <v>0.0894541345423759</v>
       </c>
       <c r="H29" t="n">
-        <v>0.261838562684139</v>
+        <v>0.265661162361222</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1630,25 +1630,25 @@
         <v>2.96557199576974</v>
       </c>
       <c r="B30" t="n">
-        <v>0.448120254579077</v>
+        <v>0.422823347908009</v>
       </c>
       <c r="C30" t="n">
-        <v>2.22841417698716</v>
+        <v>2.27002758846106</v>
       </c>
       <c r="D30" t="n">
-        <v>3.70272981455232</v>
+        <v>3.66111640307841</v>
       </c>
       <c r="E30" t="n">
-        <v>2.08725629679475</v>
+        <v>2.13683823387004</v>
       </c>
       <c r="F30" t="n">
-        <v>3.84388769474473</v>
+        <v>3.79430575766943</v>
       </c>
       <c r="G30" t="n">
-        <v>1.81121421997404</v>
+        <v>1.8763790515587</v>
       </c>
       <c r="H30" t="n">
-        <v>4.11992977156544</v>
+        <v>4.05476493998077</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -1657,7 +1657,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1671,25 +1671,25 @@
         <v>-0.0254647469315723</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00648567159751876</v>
+        <v>0.00651819106051139</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0361336767094907</v>
+        <v>-0.0361871712261135</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0147958171536539</v>
+        <v>-0.0147423226370311</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0381766632627091</v>
+        <v>-0.0382404014101746</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0127528306004355</v>
+        <v>-0.01268909245297</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0421718369667806</v>
+        <v>-0.0422556071034496</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.00875765689636397</v>
+        <v>-0.00867388675969495</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1698,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1712,25 +1712,25 @@
         <v>0.135247059586098</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0236207007860021</v>
+        <v>0.0219142100951622</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0963910067931242</v>
+        <v>0.0991981839795558</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174103112379071</v>
+        <v>0.171295935192639</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0889504860455335</v>
+        <v>0.0922952077995797</v>
       </c>
       <c r="F32" t="n">
-        <v>0.181543633126662</v>
+        <v>0.178198911372615</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0744001343613562</v>
+        <v>0.0787960543809598</v>
       </c>
       <c r="H32" t="n">
-        <v>0.196093984810839</v>
+        <v>0.191698064791235</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1753,25 +1753,25 @@
         <v>0.352010257990241</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0269964034977949</v>
+        <v>0.0254055276498965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.307601174236368</v>
+        <v>0.310218165006161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.396419341744113</v>
+        <v>0.39380235097432</v>
       </c>
       <c r="E33" t="n">
-        <v>0.299097307134563</v>
+        <v>0.302215423796444</v>
       </c>
       <c r="F33" t="n">
-        <v>0.404923208845919</v>
+        <v>0.401805092184038</v>
       </c>
       <c r="G33" t="n">
-        <v>0.282467522579921</v>
+        <v>0.286565618764107</v>
       </c>
       <c r="H33" t="n">
-        <v>0.42155299340056</v>
+        <v>0.417454897216374</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
